--- a/LEPTOSPIROSIS.xlsx
+++ b/LEPTOSPIROSIS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mark Bangcaya\Desktop\forecasting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A804DB98-13C6-4AE7-A7B5-1962707FAC41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B08E231-FFDC-41AE-A7B3-75A315956CE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{130E604A-1BEF-4E80-9998-DDE304D335A7}"/>
   </bookViews>
@@ -391,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B444F44-A6F3-4457-B838-E6AD72DEE3DD}">
-  <dimension ref="A1:B96"/>
+  <dimension ref="A1:B136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="N88" sqref="N88"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="D124" sqref="D124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1021,7 +1021,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="B78">
         <v>2024</v>
@@ -1029,7 +1029,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="B79">
         <v>2024</v>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B80">
         <v>2024</v>
@@ -1045,7 +1045,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="B81">
         <v>2024</v>
@@ -1053,7 +1053,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="B82">
         <v>2024</v>
@@ -1061,7 +1061,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="B83">
         <v>2024</v>
@@ -1069,7 +1069,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="B84">
         <v>2024</v>
@@ -1077,7 +1077,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="B85">
         <v>2024</v>
@@ -1085,7 +1085,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B86">
         <v>2024</v>
@@ -1093,7 +1093,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="B87">
         <v>2024</v>
@@ -1101,7 +1101,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="B88">
         <v>2024</v>
@@ -1109,7 +1109,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B89">
         <v>2024</v>
@@ -1117,7 +1117,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="B90">
         <v>2024</v>
@@ -1125,7 +1125,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="B91">
         <v>2024</v>
@@ -1133,7 +1133,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="B92">
         <v>2024</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="B93">
         <v>2024</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B94">
         <v>2024</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="B95">
         <v>2024</v>
@@ -1165,9 +1165,329 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96">
+        <v>29</v>
+      </c>
+      <c r="B96">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>29</v>
+      </c>
+      <c r="B97">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>28</v>
+      </c>
+      <c r="B98">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>28</v>
+      </c>
+      <c r="B99">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>28</v>
+      </c>
+      <c r="B100">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>22</v>
+      </c>
+      <c r="B101">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>23</v>
+      </c>
+      <c r="B102">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>23</v>
+      </c>
+      <c r="B103">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>23</v>
+      </c>
+      <c r="B104">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>20</v>
+      </c>
+      <c r="B105">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>16</v>
+      </c>
+      <c r="B106">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>11</v>
+      </c>
+      <c r="B107">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>8</v>
+      </c>
+      <c r="B108">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>7</v>
+      </c>
+      <c r="B109">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110">
         <v>6</v>
       </c>
-      <c r="B96">
+      <c r="B110">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>6</v>
+      </c>
+      <c r="B111">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>6</v>
+      </c>
+      <c r="B112">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>6</v>
+      </c>
+      <c r="B113">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>7</v>
+      </c>
+      <c r="B114">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>7</v>
+      </c>
+      <c r="B115">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>6</v>
+      </c>
+      <c r="B116">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>6</v>
+      </c>
+      <c r="B117">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>2</v>
+      </c>
+      <c r="B118">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>7</v>
+      </c>
+      <c r="B119">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>4</v>
+      </c>
+      <c r="B120">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>7</v>
+      </c>
+      <c r="B121">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>6</v>
+      </c>
+      <c r="B122">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>6</v>
+      </c>
+      <c r="B123">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>7</v>
+      </c>
+      <c r="B124">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>6</v>
+      </c>
+      <c r="B125">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>6</v>
+      </c>
+      <c r="B126">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>6</v>
+      </c>
+      <c r="B127">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>6</v>
+      </c>
+      <c r="B128">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>6</v>
+      </c>
+      <c r="B129">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>5</v>
+      </c>
+      <c r="B130">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>4</v>
+      </c>
+      <c r="B131">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>5</v>
+      </c>
+      <c r="B132">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>4</v>
+      </c>
+      <c r="B133">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>5</v>
+      </c>
+      <c r="B134">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>5</v>
+      </c>
+      <c r="B135">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>4</v>
+      </c>
+      <c r="B136">
         <v>2024</v>
       </c>
     </row>
